--- a/medicine/Pharmacie/Musée_Moissan/Musée_Moissan.xlsx
+++ b/medicine/Pharmacie/Musée_Moissan/Musée_Moissan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Moissan</t>
+          <t>Musée_Moissan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Musée Moissan, inauguré en 1925[1], est situé à la Faculté de pharmacie de Paris, 4, avenue de l'Observatoire dans le 6e arrondissement de Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée Moissan, inauguré en 1925, est situé à la Faculté de pharmacie de Paris, 4, avenue de l'Observatoire dans le 6e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Moissan</t>
+          <t>Musée_Moissan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée se situe au 4, avenue de l'Observatoire. Il est desservi par la ligne 12 à la station Notre-Dame-des-Champs et par la ligne B du RER à la gare du Luxembourg.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Moissan</t>
+          <t>Musée_Moissan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée Moissan est consacré à la vie d'Henri Moissan[2], chimiste français de la fin du XXe siècle (1852-1907), prix Nobel de chimie en 1906.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée Moissan est consacré à la vie d'Henri Moissan, chimiste français de la fin du XXe siècle (1852-1907), prix Nobel de chimie en 1906.
 </t>
         </is>
       </c>
